--- a/app/application/views/rpt/ru/StockTable.xlsx
+++ b/app/application/views/rpt/ru/StockTable.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp\www\isell3\application\views\rpt\ru\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица склада" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>п/п</t>
   </si>
@@ -154,6 +149,12 @@
   </si>
   <si>
     <t>Тамож. Код</t>
+  </si>
+  <si>
+    <t>Учетная</t>
+  </si>
+  <si>
+    <t>{$v-&gt;stock-&gt;rows[]-&gt;self_price}</t>
   </si>
 </sst>
 </file>
@@ -161,7 +162,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -360,12 +361,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,7 +396,7 @@
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="12" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -411,6 +406,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,7 +484,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -518,7 +519,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -727,53 +728,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:V1"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="64.140625" style="20" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="20" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="20" customWidth="1"/>
-    <col min="7" max="16" width="9.140625" style="20"/>
-    <col min="17" max="17" width="14.42578125" style="20" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="20" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="20"/>
+    <col min="1" max="1" width="3.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="64.140625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="18" customWidth="1"/>
+    <col min="7" max="17" width="9.140625" style="18"/>
+    <col min="18" max="18" width="14.42578125" style="18" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" style="18" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" s="6" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="7" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -781,176 +783,183 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:22" s="30" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:23" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="7" t="s">
+      <c r="Q3" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="R3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="S3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="T3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="U3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="V3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="W3" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="23" t="s">
+      <c r="G4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="M4" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="N4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="26" t="s">
+      <c r="O4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="26" t="s">
+      <c r="P4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="Q4" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="S4" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="T4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="U4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="V4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="W4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="19"/>
+    <row r="5" spans="1:23" s="7" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="17"/>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+    <row r="6" spans="1:23" s="7" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
       <c r="F6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:V1"/>
+    <mergeCell ref="A1:W1"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D4">
